--- a/aula38/planilha1.xlsx
+++ b/aula38/planilha1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l5\python\aula38\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{081E175D-ED68-4AC3-9D96-77CEE12A0ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B12BC9-0062-48C7-88B5-45C529295CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{685D0D92-7801-4B77-90BC-2B0A371ADBD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{685D0D92-7801-4B77-90BC-2B0A371ADBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Números</t>
   </si>
@@ -49,6 +50,42 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Cor</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Red Bull</t>
+  </si>
+  <si>
+    <t>Portuguesa</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>Vermelho</t>
+  </si>
+  <si>
+    <t>Preto</t>
+  </si>
+  <si>
+    <t>Branco</t>
   </si>
 </sst>
 </file>
@@ -402,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94940077-7D1F-4ABE-A529-DE1EF2810D4C}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,4 +505,75 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42D757F-00D1-4EAB-8CE4-7D90132F0DAB}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>